--- a/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Test_Provisioning_GatewayDetails_New.xlsx
+++ b/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Test_Provisioning_GatewayDetails_New.xlsx
@@ -39,9 +39,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>MAC_ID</t>
-  </si>
-  <si>
     <t>SERIAL_NO</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>53546SFJSGJJKSI</t>
+  </si>
+  <si>
+    <t>MAC_ID/IMEI</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -551,7 +551,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -568,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,7 +579,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -614,104 +614,104 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="38.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -771,41 +771,41 @@
     </row>
     <row r="8" spans="8:13">
       <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="8:13">
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="8:13">
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="8:13">
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="8:13">
       <c r="M12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="8:13">
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Test_Provisioning_GatewayDetails_New.xlsx
+++ b/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Test_Provisioning_GatewayDetails_New.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="959"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="1920" tabRatio="959"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Gateway_Name</t>
   </si>
@@ -118,12 +119,6 @@
   </si>
   <si>
     <t>key3:value3,key4:value4</t>
-  </si>
-  <si>
-    <t>Bulk Gateway Root1</t>
-  </si>
-  <si>
-    <t>Bulk Gateway Root2</t>
   </si>
   <si>
     <t>84289957950745809008</t>
@@ -146,6 +141,9 @@
   </si>
   <si>
     <t>MAC_ID/IMEI</t>
+  </si>
+  <si>
+    <t>SingleGateway1</t>
   </si>
 </sst>
 </file>
@@ -579,7 +577,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -614,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -634,13 +632,13 @@
     </row>
     <row r="2" spans="1:13" ht="38.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -655,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -675,13 +673,13 @@
     </row>
     <row r="3" spans="1:13" ht="25.5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -696,10 +694,10 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -725,7 +723,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
